--- a/Gestione Progetto Organizzazione/Schema ProgettoCOVID - Gruppo 2.xlsx
+++ b/Gestione Progetto Organizzazione/Schema ProgettoCOVID - Gruppo 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C1D5B4-3161-480D-8B70-44D6549FE6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848868A-6C64-4423-AC8D-700593553712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C71367E-8D9E-4BDB-ACF2-999B70EAC073}"/>
   </bookViews>
@@ -225,9 +225,6 @@
     <t>Revisione e Test di funzionalità totale</t>
   </si>
   <si>
-    <t>PROGETTO DI INFORMATICA - IN CONCLUSIONE</t>
-  </si>
-  <si>
     <t>PROGETTO DI GESTIONE PROGETTO - IN CORSO</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>PROGETTO DI TECNOLOGIE E PROGETTAZIONE - CONCLUSO</t>
+  </si>
+  <si>
+    <t>PROGETTO DI INFORMATICA - CONCLUSO (SOGGETTO AD EVENTUALI CORREZIONI)</t>
   </si>
 </sst>
 </file>
@@ -647,6 +647,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,7 +666,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A070B81-5851-4D80-A2A5-DBBB23D6B45E}">
   <dimension ref="D2:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,28 +1004,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E2" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="E2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="4:17" x14ac:dyDescent="0.25">
-      <c r="E3" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29"/>
+      <c r="E3" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D4" s="4"/>
@@ -1106,7 +1106,7 @@
       <c r="J7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="12"/>
+      <c r="L7" s="10"/>
       <c r="N7" s="11" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="J9" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D10" s="4"/>
@@ -1197,7 +1197,7 @@
       <c r="J12" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="10"/>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
@@ -1229,7 +1229,7 @@
         <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="J15" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
@@ -1260,7 +1260,7 @@
         <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L16" s="10"/>
     </row>
@@ -1319,7 +1319,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="14"/>
       <c r="H20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
         <v>41</v>
@@ -1363,19 +1363,19 @@
         <v>23</v>
       </c>
       <c r="K22" s="15"/>
-      <c r="L22" s="12"/>
+      <c r="L22" s="10"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="E23" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="29"/>
+      <c r="E23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E24" s="1" t="s">
@@ -1521,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -1553,7 +1553,7 @@
         <v>44</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -1619,7 +1619,7 @@
       <c r="K38" t="s">
         <v>35</v>
       </c>
-      <c r="L38" s="33"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E39" s="14"/>
@@ -1688,16 +1688,16 @@
       <c r="L42" s="10"/>
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E43" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="29"/>
+      <c r="E43" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E44" s="1" t="s">
@@ -1879,7 +1879,7 @@
         <v>61</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>39</v>
@@ -1890,16 +1890,16 @@
       <c r="L54" s="21"/>
     </row>
     <row r="55" spans="5:12" x14ac:dyDescent="0.25">
-      <c r="E55" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="29"/>
+      <c r="E55" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="1" t="s">
@@ -1970,7 +1970,7 @@
       <c r="J59" t="s">
         <v>11</v>
       </c>
-      <c r="L59" s="12"/>
+      <c r="L59" s="10"/>
     </row>
     <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="13">
@@ -2009,7 +2009,7 @@
         <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -2020,7 +2020,7 @@
     <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="14"/>
       <c r="H63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" t="s">
         <v>58</v>
@@ -2038,7 +2038,7 @@
         <v>42</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -2051,10 +2051,10 @@
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="I65" s="23" t="s">
         <v>69</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="J65" s="23" t="s">
         <v>44</v>
@@ -2069,10 +2069,10 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>11</v>
@@ -2085,10 +2085,10 @@
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>39</v>

--- a/Gestione Progetto Organizzazione/Schema ProgettoCOVID - Gruppo 2.xlsx
+++ b/Gestione Progetto Organizzazione/Schema ProgettoCOVID - Gruppo 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Happy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8848868A-6C64-4423-AC8D-700593553712}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEBB9F2-92E5-45ED-8688-9E4BA47565A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C71367E-8D9E-4BDB-ACF2-999B70EAC073}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C71367E-8D9E-4BDB-ACF2-999B70EAC073}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="83">
   <si>
     <t>N° Requisito</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Revisione e Test di funzionalità totale</t>
   </si>
   <si>
-    <t>PROGETTO DI GESTIONE PROGETTO - IN CORSO</t>
-  </si>
-  <si>
     <t>Controllo dei lavori</t>
   </si>
   <si>
@@ -280,6 +277,9 @@
   </si>
   <si>
     <t>PROGETTO DI INFORMATICA - CONCLUSO (SOGGETTO AD EVENTUALI CORREZIONI)</t>
+  </si>
+  <si>
+    <t>PROGETTO DI GESTIONE PROGETTO - CONCLUSO</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
   <dimension ref="D2:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
   <sheetData>
     <row r="2" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E2" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="3" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E3" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
@@ -1197,6 +1197,9 @@
       <c r="J12" t="s">
         <v>40</v>
       </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
       <c r="L12" s="10"/>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.25">
@@ -1229,7 +1232,7 @@
         <v>44</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L14" s="10"/>
     </row>
@@ -1245,6 +1248,9 @@
       <c r="J15" t="s">
         <v>23</v>
       </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.25">
@@ -1260,7 +1266,7 @@
         <v>44</v>
       </c>
       <c r="K16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L16" s="10"/>
     </row>
@@ -1319,7 +1325,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="14"/>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
         <v>41</v>
@@ -1362,12 +1368,14 @@
       <c r="J22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="15"/>
+      <c r="K22" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="L22" s="10"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="E23" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
@@ -1521,7 +1529,7 @@
         <v>40</v>
       </c>
       <c r="K32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L32" s="10"/>
     </row>
@@ -1553,7 +1561,7 @@
         <v>44</v>
       </c>
       <c r="K34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L34" s="10"/>
     </row>
@@ -1689,7 +1697,7 @@
     </row>
     <row r="43" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E43" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29"/>
@@ -1879,7 +1887,7 @@
         <v>61</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J54" s="15" t="s">
         <v>39</v>
@@ -1891,7 +1899,7 @@
     </row>
     <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="28" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
@@ -1999,7 +2007,7 @@
       <c r="J61" t="s">
         <v>11</v>
       </c>
-      <c r="L61" s="12"/>
+      <c r="L61" s="10"/>
     </row>
     <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="13">
@@ -2009,7 +2017,7 @@
         <v>32</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
@@ -2020,7 +2028,7 @@
     <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="14"/>
       <c r="H63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I63" t="s">
         <v>58</v>
@@ -2028,7 +2036,10 @@
       <c r="J63" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="1"/>
+      <c r="K63" t="s">
+        <v>35</v>
+      </c>
+      <c r="L63" s="10"/>
     </row>
     <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="18">
@@ -2038,7 +2049,7 @@
         <v>42</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -2051,10 +2062,10 @@
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
       <c r="H65" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="23" t="s">
         <v>68</v>
-      </c>
-      <c r="I65" s="23" t="s">
-        <v>69</v>
       </c>
       <c r="J65" s="23" t="s">
         <v>44</v>
@@ -2069,32 +2080,34 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="I66" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="J66" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="12"/>
+      <c r="L66" s="10"/>
     </row>
     <row r="67" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E67" s="25"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
       <c r="H67" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I67" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="I67" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="J67" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="12"/>
+      <c r="K67" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="5">
